--- a/SkillPointDistributions.xlsx
+++ b/SkillPointDistributions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dragn\Documents\Witcher3Mods\modDragnilarEdit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6F1A20-7E23-4F11-85B4-83F609684B25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98389C0-609F-4A90-BBD5-33BA72BFE6CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B43ED2F-176A-4D95-9A32-B3060890C397}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Alchemy</t>
   </si>
@@ -166,6 +166,66 @@
   </si>
   <si>
     <t>White Wolf</t>
+  </si>
+  <si>
+    <t>Domination</t>
+  </si>
+  <si>
+    <t>Axii Intensity</t>
+  </si>
+  <si>
+    <t>Puppet</t>
+  </si>
+  <si>
+    <t>Delusion</t>
+  </si>
+  <si>
+    <t>Quen Discharge</t>
+  </si>
+  <si>
+    <t>Quen Intensity</t>
+  </si>
+  <si>
+    <t>Active Shield</t>
+  </si>
+  <si>
+    <t>Exploding Quen</t>
+  </si>
+  <si>
+    <t>Supercharged Glyphs</t>
+  </si>
+  <si>
+    <t>Yrden Intensity</t>
+  </si>
+  <si>
+    <t>Magic Trap</t>
+  </si>
+  <si>
+    <t>Sustained Glyphs</t>
+  </si>
+  <si>
+    <t>Pyromaniac</t>
+  </si>
+  <si>
+    <t>Igni Intensity</t>
+  </si>
+  <si>
+    <t>Melt Armor</t>
+  </si>
+  <si>
+    <t>Fire Stream</t>
+  </si>
+  <si>
+    <t>Shockwave</t>
+  </si>
+  <si>
+    <t>Aard Intensity</t>
+  </si>
+  <si>
+    <t>Aard Sweep</t>
+  </si>
+  <si>
+    <t>Far-Reaching Aard</t>
   </si>
 </sst>
 </file>
@@ -611,24 +671,24 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -636,7 +696,7 @@
     <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -731,7 +791,7 @@
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f>SUM(B3:U3)</f>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -779,19 +839,19 @@
         <v>3</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R3">
         <v>3</v>
       </c>
       <c r="S3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>3</v>
       </c>
       <c r="U3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -890,10 +950,10 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>SUM(B7:U7)</f>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -911,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -920,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -982,11 +1042,131 @@
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T9" t="s">
+        <v>46</v>
+      </c>
+      <c r="U9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f>SUM(B10:U10)</f>
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
